--- a/assets/xlsx/word_list_english.xlsx
+++ b/assets/xlsx/word_list_english.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D2612C-ECD7-1040-890A-D603FF4BE1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB9274-A93B-4B7A-A472-4572C670B508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="10760" windowWidth="28300" windowHeight="17440" xr2:uid="{F0F78CFD-A3A0-0C40-9638-C00965E4EAE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0F78CFD-A3A0-0C40-9638-C00965E4EAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Word / Vocab</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>사용자에게 제공하고자 하는 기능이나 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng_means</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>regression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀, 되돌아감, 회귀분석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -663,22 +675,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8EC1D5-ECB4-884E-8225-46CA0CEC8598}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="5" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -686,421 +697,457 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="F2" s="1" t="str">
         <f>IF(COUNTIF(A:A,A2)&gt;1,"Dup", "")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E30" si="0">IF(COUNTIF(A:A,A3)&gt;1,"Dup", "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F30" si="0">IF(COUNTIF(A:A,A3)&gt;1,"Dup", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1" t="str">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>

--- a/assets/xlsx/word_list_english.xlsx
+++ b/assets/xlsx/word_list_english.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB9274-A93B-4B7A-A472-4572C670B508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB9BDDC-3DD4-AC4B-A2C9-75F6849BA06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F0F78CFD-A3A0-0C40-9638-C00965E4EAE0}"/>
+    <workbookView xWindow="8900" yWindow="8580" windowWidth="29040" windowHeight="15720" xr2:uid="{F0F78CFD-A3A0-0C40-9638-C00965E4EAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Word / Vocab</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -255,6 +255,14 @@
   </si>
   <si>
     <t>회귀, 되돌아감, 회귀분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distribution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포판</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -682,14 +690,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="5" width="43.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="5" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -728,7 +736,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -747,7 +755,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -766,7 +774,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -785,7 +793,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -804,7 +812,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -823,7 +831,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -842,7 +850,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -861,7 +869,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -880,7 +888,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -899,7 +907,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -918,7 +926,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -937,7 +945,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -956,7 +964,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -975,7 +983,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -994,7 +1002,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1009,18 +1017,24 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1031,7 +1045,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1042,7 +1056,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1053,7 +1067,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1064,7 +1078,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1075,7 +1089,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1086,7 +1100,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1097,7 +1111,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1108,7 +1122,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1119,7 +1133,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1130,7 +1144,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1141,7 +1155,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>

--- a/assets/xlsx/word_list_english.xlsx
+++ b/assets/xlsx/word_list_english.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB9BDDC-3DD4-AC4B-A2C9-75F6849BA06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EED53F7-74B1-A440-821B-C4EDF02FA584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8900" yWindow="8580" windowWidth="29040" windowHeight="15720" xr2:uid="{F0F78CFD-A3A0-0C40-9638-C00965E4EAE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Word / Vocab</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,6 +263,14 @@
   </si>
   <si>
     <t>배포판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conquer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정복</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1035,8 +1043,12 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
